--- a/data/Scope3_含分项.xlsx
+++ b/data/Scope3_含分项.xlsx
@@ -489,22 +489,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370437.8966563025</v>
+        <v>11394.00841643915</v>
       </c>
       <c r="C2" t="n">
-        <v>361117.9899705882</v>
+        <v>11215.59634679467</v>
       </c>
       <c r="D2" t="n">
-        <v>9319.906685714286</v>
+        <v>178.4120696444849</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9748408389912617</v>
+        <v>0.9843415887435125</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02515916100873833</v>
+        <v>0.01565841125648757</v>
       </c>
       <c r="G2" t="n">
-        <v>692.7980952380952</v>
+        <v>13.26231540565178</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
@@ -518,22 +518,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2593065.276594118</v>
+        <v>79758.05891507407</v>
       </c>
       <c r="C3" t="n">
-        <v>2527825.929794118</v>
+        <v>78509.17442756267</v>
       </c>
       <c r="D3" t="n">
-        <v>65239.3468</v>
+        <v>1248.884487511395</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9748408389912617</v>
+        <v>0.9843415887435123</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02515916100873833</v>
+        <v>0.01565841125648757</v>
       </c>
       <c r="G3" t="n">
-        <v>692.7980952380952</v>
+        <v>13.26231540565178</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11113136.89968908</v>
+        <v>341820.2524931746</v>
       </c>
       <c r="C4" t="n">
-        <v>10833539.69911765</v>
+        <v>336467.8904038401</v>
       </c>
       <c r="D4" t="n">
-        <v>279597.2005714286</v>
+        <v>5352.362089334549</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9748408389912616</v>
+        <v>0.9843415887435125</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02515916100873833</v>
+        <v>0.01565841125648757</v>
       </c>
       <c r="G4" t="n">
-        <v>692.7980952380952</v>
+        <v>13.26231540565178</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
@@ -576,22 +576,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>135209832.2795504</v>
+        <v>4158813.072000291</v>
       </c>
       <c r="C5" t="n">
-        <v>131808066.3392647</v>
+        <v>4093692.666580054</v>
       </c>
       <c r="D5" t="n">
-        <v>3401765.940285714</v>
+        <v>65120.405420237</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9748408389912616</v>
+        <v>0.9843415887435124</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02515916100873833</v>
+        <v>0.01565841125648757</v>
       </c>
       <c r="G5" t="n">
-        <v>692.7980952380952</v>
+        <v>13.26231540565178</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10378.2</v>
+        <v>312.0626800364631</v>
       </c>
     </row>
     <row r="3">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1258523.924205882</v>
+        <v>39178.50701644143</v>
       </c>
     </row>
     <row r="4">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>217239.080882353</v>
+        <v>6733.025296262535</v>
       </c>
     </row>
     <row r="5">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2593065.276594118</v>
+        <v>79758.05891507409</v>
       </c>
     </row>
     <row r="6">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1041684.724705882</v>
+        <v>32285.57943482225</v>
       </c>
     </row>
     <row r="7">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>65239.3468</v>
+        <v>1248.884487511395</v>
       </c>
     </row>
     <row r="8">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>541149</v>
+        <v>16271.83974475843</v>
       </c>
     </row>
     <row r="9">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>65623033.1907353</v>
+        <v>2042879.294428732</v>
       </c>
     </row>
     <row r="10">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11327466.36029412</v>
+        <v>351079.1761622607</v>
       </c>
     </row>
     <row r="11">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>135209832.2795504</v>
+        <v>4158813.072000291</v>
       </c>
     </row>
     <row r="12">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>54316417.7882353</v>
+        <v>1683462.356244303</v>
       </c>
     </row>
     <row r="13">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3401765.940285714</v>
+        <v>65120.405420237</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1482.6</v>
+        <v>44.58038286235187</v>
       </c>
     </row>
     <row r="15">
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>179789.1320294118</v>
+        <v>5596.929573777347</v>
       </c>
     </row>
     <row r="16">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>31034.15441176471</v>
+        <v>961.8607566089335</v>
       </c>
     </row>
     <row r="17">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>370437.8966563025</v>
+        <v>11394.00841643915</v>
       </c>
     </row>
     <row r="18">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>148812.1035294118</v>
+        <v>4612.225633546035</v>
       </c>
     </row>
     <row r="19">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9319.906685714286</v>
+        <v>178.4120696444849</v>
       </c>
     </row>
     <row r="20">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>44478.00000000001</v>
+        <v>1337.411485870556</v>
       </c>
     </row>
     <row r="21">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5393673.960882353</v>
+        <v>167907.8872133204</v>
       </c>
     </row>
     <row r="22">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>931024.6323529412</v>
+        <v>28855.822698268</v>
       </c>
     </row>
     <row r="23">
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>11113136.89968907</v>
+        <v>341820.2524931745</v>
       </c>
     </row>
     <row r="24">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4464363.105882353</v>
+        <v>138366.769006381</v>
       </c>
     </row>
     <row r="25">
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>279597.2005714286</v>
+        <v>5352.362089334549</v>
       </c>
     </row>
   </sheetData>
@@ -1005,7 +1005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1482.6</v>
+        <v>44.58038286235187</v>
       </c>
     </row>
     <row r="3">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>179789.1320294118</v>
+        <v>5596.929573777347</v>
       </c>
     </row>
     <row r="4">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31034.15441176471</v>
+        <v>961.8607566089335</v>
       </c>
     </row>
     <row r="5">
@@ -1062,7 +1062,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>148812.1035294118</v>
+        <v>4612.225633546035</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>石灰</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
